--- a/biology/Zoologie/Cavernularia_(cnidaire)/Cavernularia_(cnidaire).xlsx
+++ b/biology/Zoologie/Cavernularia_(cnidaire)/Cavernularia_(cnidaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavernularia est un genre de vérétilles, des animaux de l'ordre des Pennatulacea.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cavernularia a été créé en 1850 par Achille Valenciennes dans une publication d’Henri Milne Edwards et Jules Haime[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cavernularia a été créé en 1850 par Achille Valenciennes dans une publication d’Henri Milne Edwards et Jules Haime.
 Ne pas confondre ce genre avec Cavernularia Degel., 1937, un genre de lichens de la famille des Parmeliaceae.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cavernularia capitata Williams, 1989
 Cavernularia chuni Kükenthal &amp; Broch, 1911
@@ -588,7 +604,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) H. Milne Edwards et Jules Haime, A monograph of the British fossil corals, Londres, Inconnu, 1850, 736 p. (OCLC 877855, DOI 10.5962/BHL.TITLE.11691, lire en ligne)</t>
         </is>
